--- a/src/test/resources/WhatsApp_Messages.xlsx
+++ b/src/test/resources/WhatsApp_Messages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\automation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\git\WhatsApp\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CD1666-6725-4A8E-91C1-B568E0C0B374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F80BA-5F00-4599-A023-BC1FA0085BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Contact Name</t>
   </si>
@@ -33,22 +33,25 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Poochooki</t>
-  </si>
-  <si>
-    <t>Rosaline Pattnaik</t>
-  </si>
-  <si>
-    <t>Radhamohan Pattnaik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vikas Agarawala </t>
-  </si>
-  <si>
-    <t>Learn selenium at https://www.selenium.dev/</t>
+    <t>Sending message using Selenium</t>
+  </si>
+  <si>
+    <t>Attach Image</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Send Message</t>
+  </si>
+  <si>
+    <t>C:\img\Test.jpg</t>
+  </si>
+  <si>
+    <t>Image Path</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -119,11 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,64 +406,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
